--- a/results/I3_N5_M2_T15_C100_DepCentral_s4_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s4_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1852.17166423517</v>
+        <v>1097.603585677869</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007000207901000977</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.02020018276435</v>
+        <v>6.734404080986274</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.02998028382004</v>
+        <v>4.916105624824676</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1526.700000000084</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.04</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,64 +631,9 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>5.183932901737304</v>
       </c>
     </row>
     <row r="6">
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1076,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1090,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1104,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1118,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1126,13 +1071,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1146,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1160,121 +1105,9 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1388,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000895</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1399,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000001033</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1410,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000893</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000921</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1432,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>184.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1443,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>190.0900000000015</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>197.7250000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -1465,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>200.3650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1476,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>189.8850000000014</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -1487,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000072</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1498,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000072</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1509,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1520,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1531,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000072</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1542,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5400000000008</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1553,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.1650000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1564,7 +1397,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>108.45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1575,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -1586,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>111.3550000000008</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1597,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1608,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6950000000087</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1619,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.68000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1630,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4150000000086</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1641,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6050000000089</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1652,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1663,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6950000000087</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1674,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.68000000001</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -1685,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4150000000086</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -1696,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6050000000089</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1707,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>184.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1718,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>190.0900000000015</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1729,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>197.7250000000014</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1740,7 +1573,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>200.3650000000015</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1751,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.8850000000014</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1798,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1809,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63.69500000000866</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1820,7 +1653,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>61.68000000001004</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1831,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>60.41500000000863</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -1842,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.60500000000891</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1853,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>84.05</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1864,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>90.09000000000145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1875,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>97.72500000000144</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1886,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>100.3650000000015</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1730,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.88500000000144</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1955,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1966,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1977,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1988,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1999,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2010,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2021,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2032,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2043,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2054,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2065,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2076,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2087,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2098,7 +1931,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2109,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2120,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2131,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2142,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2153,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2164,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2175,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2186,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2197,7 +2030,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2208,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2222,7 +2055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,7 +2082,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2263,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2274,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2285,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2296,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2304,10 +2137,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2318,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2329,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2337,10 +2170,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2348,10 +2181,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2359,10 +2192,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2373,53 +2206,9 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
